--- a/Cleaned_Data.xlsx
+++ b/Cleaned_Data.xlsx
@@ -1946,7 +1946,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>Suburban</t>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -2310,7 +2310,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>Suburban</t>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -3584,7 +3584,7 @@
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>Suburban</t>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -3675,7 +3675,7 @@
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>Suburban</t>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -5131,7 +5131,7 @@
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>Suburban</t>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -6314,7 +6314,7 @@
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>Suburban</t>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -6678,7 +6678,7 @@
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>Suburban</t>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -8407,7 +8407,7 @@
       </c>
       <c r="AA88" t="inlineStr">
         <is>
-          <t>Suburban</t>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -10045,7 +10045,7 @@
       </c>
       <c r="AA106" t="inlineStr">
         <is>
-          <t>Suburban</t>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -10591,7 +10591,7 @@
       </c>
       <c r="AA112" t="inlineStr">
         <is>
-          <t>Rural</t>
+          <t>Suburban</t>
         </is>
       </c>
     </row>
@@ -10955,7 +10955,7 @@
       </c>
       <c r="AA116" t="inlineStr">
         <is>
-          <t>Suburban</t>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -12866,7 +12866,7 @@
       </c>
       <c r="AA137" t="inlineStr">
         <is>
-          <t>Suburban</t>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -13776,7 +13776,7 @@
       </c>
       <c r="AA147" t="inlineStr">
         <is>
-          <t>Suburban</t>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -13958,7 +13958,7 @@
       </c>
       <c r="AA149" t="inlineStr">
         <is>
-          <t>Suburban</t>
+          <t>Rural</t>
         </is>
       </c>
     </row>
